--- a/Comm100-Work/Partner &SSO/SSO & Partner 测试报告.xlsx
+++ b/Comm100-Work/Partner &SSO/SSO & Partner 测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14070"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块清单" sheetId="2" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>4级bug</t>
   </si>
   <si>
-    <t>留到下一轮处理 bug</t>
+    <t>留下轮或暂不处理的bug</t>
   </si>
   <si>
     <t>reopen</t>
@@ -227,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,15 +279,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +371,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -316,77 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,29 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -444,73 +452,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,19 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,85 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,15 +803,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,21 +818,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,17 +846,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,11 +875,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,10 +912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,134 +927,134 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,18 +1112,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1707,7 +1718,7 @@
       <c r="C16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="35"/>
@@ -1719,7 +1730,7 @@
       <c r="C17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="35"/>
@@ -1731,7 +1742,7 @@
       <c r="C18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="35"/>
@@ -1743,7 +1754,7 @@
       <c r="C19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="35"/>
@@ -1755,7 +1766,7 @@
       <c r="C20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="35"/>
@@ -1816,8 +1827,8 @@
   <sheetPr/>
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,7 +1836,7 @@
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
     <col min="3" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="57.8083333333333" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -1879,7 +1890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:9">
+    <row r="4" s="1" customFormat="1" hidden="1" spans="2:9">
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1900,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="7" t="s">
@@ -1913,7 +1924,7 @@
       <c r="H5" s="8">
         <v>38</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>29</v>
       </c>
     </row>
@@ -1921,13 +1932,27 @@
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="20"/>
+      <c r="C6" s="8">
+        <v>145</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8">
+        <v>55</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
@@ -1939,7 +1964,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
@@ -1951,7 +1976,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" ht="14.25" spans="2:9">
       <c r="B9" s="9" t="s">
@@ -1959,31 +1984,31 @@
       </c>
       <c r="C9" s="10">
         <f>SUM(C5:C8)</f>
-        <v>422</v>
+        <v>567</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" ref="D9:I9" si="0">SUM(D5:D8)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="I9" s="21">
+        <v>47</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1998,7 +2023,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" ht="14.25" spans="2:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2030,11 +2055,11 @@
       <c r="H13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="2:9">
+    <row r="14" s="1" customFormat="1" hidden="1" spans="2:9">
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
@@ -2076,13 +2101,27 @@
       <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="14">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14">
+        <v>58</v>
+      </c>
+      <c r="E16" s="14">
+        <v>31</v>
+      </c>
+      <c r="F16" s="14">
+        <v>21</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="13" t="s">
@@ -2108,25 +2147,25 @@
       <c r="H18" s="14"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" ht="14.25" spans="2:9">
       <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="16">
         <f>SUM(C15:C18)</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ref="D19:I19" si="1">SUM(D15:D18)</f>
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
@@ -2136,12 +2175,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="2:9">
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
@@ -2153,7 +2192,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" ht="14.25" spans="2:9">
+    <row r="22" ht="15.75" spans="2:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2188,7 +2227,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:10">
+    <row r="24" s="1" customFormat="1" hidden="1" spans="2:10">
       <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
@@ -2230,16 +2269,28 @@
       <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="14">
+        <v>14</v>
+      </c>
+      <c r="D26" s="14">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14">
+        <v>19</v>
+      </c>
+      <c r="F26" s="14">
+        <v>35</v>
+      </c>
+      <c r="G26" s="14">
+        <v>42</v>
+      </c>
+      <c r="H26" s="18">
+        <v>23</v>
+      </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="14.25" spans="2:10">
+    <row r="27" s="1" customFormat="1" spans="2:10">
       <c r="B27" s="13" t="s">
         <v>40</v>
       </c>
@@ -2252,7 +2303,7 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="2:10">
+    <row r="28" s="1" customFormat="1" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
@@ -2265,27 +2316,33 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="16">
-        <v>84</v>
+        <f>SUM(C25:C28)</f>
+        <v>98</v>
       </c>
       <c r="D29" s="16">
-        <v>81</v>
+        <f>SUM(D25:D28)</f>
+        <v>93</v>
       </c>
       <c r="E29" s="16">
-        <v>73</v>
+        <f>SUM(E25:E28)</f>
+        <v>92</v>
       </c>
       <c r="F29" s="16">
-        <v>84</v>
+        <f>SUM(F25:F28)</f>
+        <v>119</v>
       </c>
       <c r="G29" s="16">
-        <v>46</v>
-      </c>
-      <c r="H29" s="19">
-        <v>54</v>
+        <f>SUM(G25:G28)</f>
+        <v>88</v>
+      </c>
+      <c r="H29" s="16">
+        <f>SUM(H25:H28)</f>
+        <v>77</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
